--- a/data/income_statement/2digits/size/81_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/81_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>81-Services to buildings and landscape activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>81-Services to buildings and landscape activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>218560.78477</v>
+        <v>229407.81741</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>235266.09172</v>
+        <v>250437.63583</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>242186.30092</v>
+        <v>264881.46644</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>358015.07336</v>
+        <v>388575.04969</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>505514.33312</v>
+        <v>544868.83926</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>579698.6390600001</v>
+        <v>626958.6468700001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>952807.3507599999</v>
+        <v>1067078.28771</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>901460.6791899999</v>
+        <v>979428.48583</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1001977.0152</v>
+        <v>1097813.98726</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1470514.84873</v>
+        <v>1635053.704</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1670194.47115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2001901.34369</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1800513.901</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>211711.20214</v>
+        <v>221683.70617</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>223062.16054</v>
+        <v>236577.50854</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>230464.07547</v>
+        <v>251895.59441</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>342607.09409</v>
+        <v>369344.10759</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>480211.34236</v>
+        <v>515224.74154</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>566110.73575</v>
+        <v>611126.02335</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>902431.93886</v>
+        <v>1005169.84641</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>846787.6651199999</v>
+        <v>922095.42528</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>957080.96542</v>
+        <v>1048410.31416</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1421539.99809</v>
+        <v>1577842.96929</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1597179.10504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1908959.43088</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1697958.422</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1634.57437</v>
+        <v>1951.9</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2788.8451</v>
+        <v>3432.63515</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6207.63624</v>
+        <v>6240.46668</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6715.72142</v>
+        <v>7660.7498</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4913.82954</v>
+        <v>5355.52543</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3595.3034</v>
+        <v>3630.19028</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>22776.01133</v>
+        <v>22982.11479</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>41275.34691000001</v>
+        <v>41394.66793000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>20460.57276</v>
+        <v>20664.43244</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>20510.76705</v>
+        <v>20607.73673</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>38442.3599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>43149.31346</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>49200.666</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5215.00826</v>
+        <v>5772.211240000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9415.086080000001</v>
+        <v>10427.49214</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5514.58921</v>
+        <v>6745.40535</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8692.25785</v>
+        <v>11570.1923</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>20389.16122</v>
+        <v>24288.57229</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9992.599910000001</v>
+        <v>12202.43324</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>27599.40057</v>
+        <v>38926.32651</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>13397.66716</v>
+        <v>15938.39262</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>24435.47702</v>
+        <v>28739.24066</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>28464.08359</v>
+        <v>36602.99798000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>34573.00621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>49792.59935</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>53354.813</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>628.24431</v>
+        <v>651.0340200000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>336.90766</v>
+        <v>360.86637</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>590.2108000000001</v>
+        <v>619.7024700000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>666.16139</v>
+        <v>702.3605900000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>577.62689</v>
+        <v>661.4728299999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>733.89689</v>
+        <v>1115.15594</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2965.53736</v>
+        <v>3137.33346</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1397.14462</v>
+        <v>1632.29973</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>728.53284</v>
+        <v>847.7916599999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6843.41082</v>
+        <v>11610.58373</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4046.21373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6796.24149</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>20712.588</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>533.70707</v>
+        <v>535.4763400000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>308.29704</v>
+        <v>311.23822</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>568.92413</v>
+        <v>596.3382999999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>428.03372</v>
+        <v>464.23292</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>518.3037399999999</v>
+        <v>580.7120699999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>640.77118</v>
+        <v>1005.89026</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2735.23927</v>
+        <v>2901.86378</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1371.79655</v>
+        <v>1600.08851</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>589.4410700000001</v>
+        <v>705.57164</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6063.83461</v>
+        <v>10803.27984</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3679.3049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6270.958509999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>19709.607</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>92.7975</v>
@@ -1190,7 +1126,7 @@
         <v>16.39087</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>17.97817</v>
+        <v>20.05567</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>202.27602</v>
@@ -1199,34 +1135,39 @@
         <v>54.71764</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>70.29325</v>
+        <v>73.09325</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>133.89222</v>
+        <v>137.34472</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>13.17749</v>
+        <v>16.68917</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>120.5604</v>
+        <v>121.75504</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>223.41123</v>
+        <v>251.13891</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>317.94269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>378.97786</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>697.042</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1.73974</v>
+        <v>22.76018</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>12.21975</v>
+        <v>33.23728</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>3.3085</v>
@@ -1235,229 +1176,259 @@
         <v>35.85165</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4.605510000000001</v>
+        <v>26.04312</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>22.83246</v>
+        <v>36.17243000000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>96.40586999999999</v>
+        <v>98.12496</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>12.17058</v>
+        <v>15.52205</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>18.53137</v>
+        <v>20.46498</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>556.16498</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48.96614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>146.30512</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>305.939</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>217932.54046</v>
+        <v>228756.78339</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>234929.18406</v>
+        <v>250076.76946</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>241596.09012</v>
+        <v>264261.76397</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>357348.91197</v>
+        <v>387872.6891</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>504936.70623</v>
+        <v>544207.3664300001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>578964.7421700001</v>
+        <v>625843.4909300001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>949841.8134</v>
+        <v>1063940.95425</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>900063.5345699999</v>
+        <v>977796.1861</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1001248.48236</v>
+        <v>1096966.1956</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1463671.43791</v>
+        <v>1623443.12027</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1666148.25742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1995105.1022</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1779801.313</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>181337.67008</v>
+        <v>189274.48903</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>190451.92982</v>
+        <v>202274.6043</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>192472.71056</v>
+        <v>210204.63948</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>283320.91023</v>
+        <v>304618.42409</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>417790.6405</v>
+        <v>445330.10855</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>490804.01721</v>
+        <v>525198.81121</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>849015.2154099999</v>
+        <v>943557.81961</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>800234.1834099999</v>
+        <v>860107.86055</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>891694.94885</v>
+        <v>967516.9523800001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1251951.54799</v>
+        <v>1391383.04262</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1417377.12524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1683837.02287</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1450016.082</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>7692.4546</v>
+        <v>9497.42266</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>9201.2997</v>
+        <v>10123.04815</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>10159.0455</v>
+        <v>13194.06023</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>16480.7696</v>
+        <v>18011.49005</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>16846.24691</v>
+        <v>20562.63167</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>24851.2814</v>
+        <v>30025.11127</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>31995.94391</v>
+        <v>38115.63865000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>24030.38084000001</v>
+        <v>29911.77928</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>38724.14719</v>
+        <v>43771.79385</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>92886.90297</v>
+        <v>102561.24444</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>103419.02833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>132429.31593</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>132751.304</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>104395.07071</v>
+        <v>107234.07368</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>100604.4466</v>
+        <v>106494.4186</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>95504.76762</v>
+        <v>104940.76565</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>160828.66227</v>
+        <v>171076.19289</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>207330.71194</v>
+        <v>217951.11741</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>268785.87288</v>
+        <v>286040.1770499999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>534625.1823400001</v>
+        <v>597149.75567</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>477948.0202800001</v>
+        <v>502180.3253</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>528247.6283399999</v>
+        <v>565427.16753</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>686364.57073</v>
+        <v>769933.6118800001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>710500.59699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>829147.0824699999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>793995.047</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>69140.25212999999</v>
+        <v>72335.10004999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>80212.79190000001</v>
+        <v>85223.74593</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>86385.57337</v>
+        <v>91646.48953000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>104032.45682</v>
+        <v>113434.9441</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>191527.73772</v>
+        <v>204068.40857</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>196119.37339</v>
+        <v>207153.30929</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>280947.61709</v>
+        <v>305561.86934</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>294235.21963</v>
+        <v>322711.81271</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>311027.2055800001</v>
+        <v>343344.0203800001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>462053.7447999999</v>
+        <v>507321.75868</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>587486.00362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>699953.7397</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>502938.698</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>109.89264</v>
+        <v>207.89264</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>433.39162</v>
@@ -1466,112 +1437,127 @@
         <v>423.32407</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1979.02154</v>
+        <v>2095.79705</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2085.94393</v>
+        <v>2747.9509</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1047.48954</v>
+        <v>1980.2136</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1446.47207</v>
+        <v>2730.55595</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4020.56266</v>
+        <v>5303.943260000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13695.96774</v>
+        <v>14973.97062</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>10646.32949</v>
+        <v>11566.42762</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15971.4963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22306.88477</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20331.033</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>36594.87037999999</v>
+        <v>39482.29436</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>44477.25423999999</v>
+        <v>47802.16516</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>49123.37956</v>
+        <v>54057.12449</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>74028.00173999999</v>
+        <v>83254.26500999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>87146.06572999999</v>
+        <v>98877.25788</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>88160.72495999999</v>
+        <v>100644.67972</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>100826.59799</v>
+        <v>120383.13464</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>99829.35115999999</v>
+        <v>117688.32555</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>109553.53351</v>
+        <v>129449.24322</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>211719.88992</v>
+        <v>232060.07765</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>248771.13218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>311268.07933</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>329785.231</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>35604.42588</v>
+        <v>41636.03722</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>44565.42062999999</v>
+        <v>50949.18938</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>51286.14796999999</v>
+        <v>58106.36758</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>73731.52411</v>
+        <v>84842.05241000002</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>87789.49746000001</v>
+        <v>99332.25659999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>85235.44391</v>
+        <v>102624.39595</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>103996.08529</v>
+        <v>126488.38606</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>110828.55675</v>
+        <v>149754.64538</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>132658.2243</v>
+        <v>166407.79524</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>213597.78894</v>
+        <v>256870.88938</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>280637.80401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>360875.63901</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>336614.33</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>166.27791</v>
@@ -1589,13 +1575,13 @@
         <v>156.82443</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>52.03232999999999</v>
+        <v>109.73281</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4417.337140000001</v>
+        <v>4432.86318</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>140.87803</v>
+        <v>337.01646</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>323.53769</v>
@@ -1606,284 +1592,324 @@
       <c r="M21" s="48" t="n">
         <v>224.09262</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>109.466</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4188.4638</v>
+        <v>5144.49346</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6702.06092</v>
+        <v>7383.771210000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6816.23</v>
+        <v>7736.42443</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>9437.136369999998</v>
+        <v>10443.14276</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8677.641589999999</v>
+        <v>9202.30861</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8167.12052</v>
+        <v>9300.09895</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9031.028329999999</v>
+        <v>10150.76242</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10865.55625</v>
+        <v>13957.72672</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11964.3694</v>
+        <v>13993.9154</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>22391.78859</v>
+        <v>26592.39907</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>29171.15593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>34320.97921</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>32292.421</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>31249.68417</v>
+        <v>36325.26585</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>37599.47681</v>
+        <v>43301.53526999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>44224.45324</v>
+        <v>50124.47842</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>63386.93028</v>
+        <v>73491.45219</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>78955.03143999999</v>
+        <v>89973.12356000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>77016.29106</v>
+        <v>93214.56419</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>90547.71982000001</v>
+        <v>111904.76046</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>99822.12247</v>
+        <v>135459.9022</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>120370.31721</v>
+        <v>152090.34215</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>191155.05341</v>
+        <v>230227.54337</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>251242.55546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>326330.56718</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>304212.443</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>990.4444999999999</v>
+        <v>-2153.74286</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-88.16638999999989</v>
+        <v>-3147.02422</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-2162.76841</v>
+        <v>-4049.24309</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>296.47763</v>
+        <v>-1587.7874</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-643.43173</v>
+        <v>-454.99872</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2925.281050000001</v>
+        <v>-1979.71623</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-3169.4873</v>
+        <v>-6105.25142</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-10999.20559</v>
+        <v>-32066.31983</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-23104.69079</v>
+        <v>-36958.55202</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-1877.899020000001</v>
+        <v>-24810.81173</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-31866.67183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-49607.55968</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6829.099</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1024.18525</v>
+        <v>4580.64624</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1354.44879</v>
+        <v>4451.32945</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2022.99654</v>
+        <v>4427.54789</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1390.54755</v>
+        <v>6529.317950000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3483.51702</v>
+        <v>19729.05751</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6841.46318</v>
+        <v>24679.63546</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4338.7087</v>
+        <v>20169.11842</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3589.54587</v>
+        <v>19552.58203</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5519.666109999999</v>
+        <v>105159.40153</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14936.73196</v>
+        <v>252018.9717</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>15373.14525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>60168.65632</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>59316.406</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>8.638069999999999</v>
+        <v>47.77241</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>25.143</v>
+        <v>64.27734</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>135.5832</v>
+        <v>161.67276</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>34.62044</v>
+        <v>82.1865</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>380.8107</v>
+        <v>437.17762</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>145.26118</v>
+        <v>229.87151</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>555.32699</v>
+        <v>680.68289</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>108.80666</v>
+        <v>342.74253</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>342.33907</v>
+        <v>1125.66571</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2432.06157</v>
+        <v>4044.57925</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>594.5250800000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>828.4208199999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>717.103</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>49.03272</v>
+        <v>635.77657</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>250.74716</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>88.13508999999999</v>
+        <v>168.8532</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>10.48178</v>
+        <v>848.7910400000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>471.99608</v>
+        <v>525.1590200000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>630.8850799999999</v>
+        <v>1566.02945</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>152.22093</v>
+        <v>582.34624</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>155.25371</v>
+        <v>1364.80937</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>178.31667</v>
+        <v>715.43862</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>638.99387</v>
+        <v>2909.03894</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>436.54219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2946.32433</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>714.403</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>179.45894</v>
+        <v>1362.48039</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>221.56766</v>
+        <v>981.0959300000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>224.36625</v>
+        <v>1392.05572</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>205.71721</v>
+        <v>1619.64924</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>289.0316</v>
+        <v>6522.00886</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>509.67637</v>
+        <v>8107.103160000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>367.55081</v>
+        <v>8431.545759999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>491.60877</v>
+        <v>4448.231229999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>690.5221000000001</v>
+        <v>9324.400700000002</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1877.34184</v>
+        <v>14246.49637</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2526.54863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20267.53723</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15356.05</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1898,31 +1924,36 @@
         <v>0.86325</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>11.695</v>
+        <v>11.76</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>77.00113999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.98329</v>
+        <v>1.10329</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>15.3502</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>4.20225</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>69.35243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>489.23953</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>355.045</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4.07316</v>
@@ -1934,112 +1965,127 @@
         <v>24.96581</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>25.926</v>
+        <v>155.19552</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>33.86042</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>129.03608</v>
+        <v>200.03608</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>296.34902</v>
+        <v>310.54902</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>77.04596000000001</v>
+        <v>159.29596</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>84.60675000000001</v>
+        <v>88.5608</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>287.1344500000001</v>
+        <v>287.13445</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>110.15581</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>236.07</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>7.90067</v>
+        <v>8.90349</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1.35953</v>
+        <v>1.4532</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7.16122</v>
+        <v>11.51769</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>17.21545</v>
+        <v>20.89186</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>21.15848</v>
+        <v>31.8756</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>24.47327</v>
+        <v>27.05693</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>12.10644</v>
+        <v>19.11867</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>31.56301</v>
+        <v>50.39692</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>43.37621</v>
+        <v>70.62871000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>160.48008</v>
+        <v>171.33743</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>190.7829</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>259.12264</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>649.496</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>54.60352</v>
+        <v>590.8069399999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>63.99612</v>
+        <v>1260.50997</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>754.1577600000001</v>
+        <v>1043.33293</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>139.73769</v>
+        <v>572.46952</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>185.99446</v>
+        <v>731.66445</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>381.9831899999999</v>
+        <v>1283.77885</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>861.55323</v>
+        <v>2668.10728</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>307.90652</v>
+        <v>1606.8244</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>466.99137</v>
+        <v>83741.38492999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5607.00219</v>
+        <v>223508.40985</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2659.82001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10049.69012</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>32482.556</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,10 +2106,10 @@
         <v>5.49413</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>4.02818</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>0</v>
+        <v>3823.94376</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.41014</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>5.845569999999999</v>
@@ -2087,13 +2138,13 @@
         <v>240.68328</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0.505</v>
+        <v>2.97168</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>78.11888999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>1.2352</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,128 +2164,148 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>714.6326000000001</v>
+        <v>1924.98771</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>539.44175</v>
+        <v>1641.05228</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>781.9144299999999</v>
+        <v>1615.97032</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>877.8668399999999</v>
+        <v>3151.15213</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2088.97028</v>
+        <v>11434.31634</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4937.65274</v>
+        <v>13183.26421</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2089.57371</v>
+        <v>7468.59281</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2367.36124</v>
+        <v>7706.337860000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3638.17425</v>
+        <v>10002.63217</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3928.88492</v>
+        <v>6847.14237</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8784.00806</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>25216.7557</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>8788.683000000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>649.7249399999999</v>
+        <v>2201.92809</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>579.47866</v>
+        <v>1709.72514</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2063.70694</v>
+        <v>2250.28109</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>551.0741599999999</v>
+        <v>2246.19379</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1437.95894</v>
+        <v>3119.491819999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4320.76674</v>
+        <v>6139.760520000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1403.3183</v>
+        <v>3259.39732</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2734.30579</v>
+        <v>10859.99276</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1560.40096</v>
+        <v>86374.62873000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8497.446530000001</v>
+        <v>233836.35502</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6692.320009999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16208.20346</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>40746.461</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>14.50339</v>
+        <v>356.56108</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>207.33483</v>
+        <v>421.02011</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>51.18142</v>
+        <v>51.34933</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>29.33919</v>
+        <v>29.5532</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>66.17088000000001</v>
+        <v>68.69498</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>33.68799</v>
+        <v>41.83</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>43.35232000000001</v>
+        <v>106.6532</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>41.97525</v>
+        <v>64.58695</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>23.10631</v>
+        <v>42.06285</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>164.39305</v>
+        <v>239.99922</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>235.62269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>413.16407</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>493.882</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>152.12368</v>
@@ -2249,31 +2320,36 @@
         <v>28.02834</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>261.95644</v>
+        <v>884.6429199999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1286.04933</v>
+        <v>1292.59125</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>212.41476</v>
+        <v>245.56881</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1540.68409</v>
+        <v>1552.93409</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>175.741</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>751.5384200000001</v>
+        <v>1708.75478</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>609.7825899999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1529.34316</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3182.222</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>1.57835</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.00735</v>
+        <v>0.00758</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.33898</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>36.37835</v>
+        <v>1228.38576</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>37.54164</v>
+        <v>921.5563099999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1098.20982</v>
+        <v>1148.44026</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>98.91344000000001</v>
+        <v>288.95673</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>157.97469</v>
+        <v>248.00103</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>309.37158</v>
+        <v>1661.25427</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>405.62204</v>
+        <v>1669.6512</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>411.64898</v>
+        <v>2360.87538</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>573.1723499999999</v>
+        <v>84543.82036</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6035.26169</v>
+        <v>228039.93545</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2273.4958</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9574.491109999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>33629.006</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2372,31 +2458,36 @@
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1.70968</v>
+        <v>11.39921</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>5659.23651</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0</v>
+        <v>1.87759</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>4.89454</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.025</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>62.81311</v>
+        <v>67.14825999999999</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>6.694319999999999</v>
+        <v>12.067</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>383.90641</v>
+        <v>397.70931</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>278.26188</v>
+        <v>305.43573</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>767.9321199999999</v>
+        <v>904.10792</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>385.9380600000001</v>
+        <v>1890.80039</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>919.41023</v>
+        <v>1885.70619</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2691.60193</v>
+        <v>3144.02909</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>740.1673600000001</v>
+        <v>1226.07276</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>739.99747</v>
+        <v>1222.35948</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>786.8029500000001</v>
+        <v>1611.42617</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1546.24602</v>
+        <v>3845.7804</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3568.52439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4685.9716</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3426.351</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>947.91015</v>
+        <v>2050.13355</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>831.62996</v>
+        <v>1810.67238</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1283.98795</v>
+        <v>2725.18246</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1515.70209</v>
+        <v>3157.5654</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2299.11453</v>
+        <v>4160.82514</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3019.84618</v>
+        <v>5774.279870000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2298.98389</v>
+        <v>6063.75175</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2630.78445</v>
+        <v>8309.889279999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3003.79733</v>
+        <v>7487.533499999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11641.46592</v>
+        <v>22909.88581</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12042.80903</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>26767.57238</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31553.231</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>762.35226</v>
+        <v>1712.485</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>774.2014399999999</v>
+        <v>1691.16725</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1218.67474</v>
+        <v>2646.24425</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1456.30285</v>
+        <v>3098.16616</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2179.99635</v>
+        <v>4040.24043</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2948.77506</v>
+        <v>5703.20875</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2226.64901</v>
+        <v>5924.690350000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2518.89674</v>
+        <v>8183.18767</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2933.64822</v>
+        <v>7409.58821</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>11515.43746</v>
+        <v>22783.79127</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11737.41029</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>26293.52665</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>29651.757</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>185.55789</v>
+        <v>337.64855</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>57.42852000000001</v>
+        <v>119.50513</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>65.31321</v>
+        <v>78.93821</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>59.39924</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>119.11818</v>
+        <v>120.58471</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>71.07111999999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>72.33488</v>
+        <v>139.0614</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>111.88771</v>
+        <v>126.70161</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>70.14911000000001</v>
+        <v>77.94529000000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>126.02846</v>
+        <v>126.09454</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>305.39874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>474.04573</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1901.474</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>416.9946599999999</v>
+        <v>-1825.15826</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-144.82622</v>
+        <v>-2216.09229</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-3487.46676</v>
+        <v>-4597.15875</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-379.7510700000001</v>
+        <v>-462.2286399999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-896.9881799999999</v>
+        <v>11993.74183</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2426.13131</v>
+        <v>10785.87884</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2533.08079</v>
+        <v>4740.71793</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-12774.74996</v>
+        <v>-31683.61984</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-22149.22297</v>
+        <v>-25661.31272</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-7080.07951</v>
+        <v>-29538.08086</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-35228.65562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-32414.6792</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-19812.385</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>911.9851799999999</v>
+        <v>2056.73942</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>818.05102</v>
+        <v>5114.451</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1004.11716</v>
+        <v>1781.15165</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2449.48035</v>
+        <v>4205.55785</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3256.76732</v>
+        <v>6619.142880000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4869.91251</v>
+        <v>21498.50597</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3651.41099</v>
+        <v>7796.38928</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5446.96744</v>
+        <v>94377.3741</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3976.28143</v>
+        <v>10202.04986</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8304.50051</v>
+        <v>31382.19667</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>18216.87968</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>32272.31334</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>34846.469</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>45.46821</v>
+        <v>49.97708</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>4.227180000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0.97914</v>
+        <v>6.31878</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>17.04813</v>
+        <v>20.86383</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>42.40577</v>
+        <v>877.23388</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>8.697839999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>48.60879</v>
+        <v>57.66862</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>36.19554</v>
+        <v>151.63922</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>168.16488</v>
+        <v>170.91573</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>416.05569</v>
+        <v>463.41655</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>304.12404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>384.35147</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>476.977</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>866.51697</v>
+        <v>2006.76234</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>813.8238400000001</v>
+        <v>5110.223819999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1003.13802</v>
+        <v>1774.83287</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2432.43222</v>
+        <v>4184.69402</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3214.36155</v>
+        <v>5741.909</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4861.21467</v>
+        <v>21489.80813</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3602.8022</v>
+        <v>7738.72066</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5410.7719</v>
+        <v>94225.73488</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3808.11655</v>
+        <v>10031.13413</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7888.444820000001</v>
+        <v>30918.78012</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17912.75564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>31887.96187</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>34369.492</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2406.663340000001</v>
+        <v>3258.51115</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2161.47611</v>
+        <v>3208.98883</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>8277.738740000001</v>
+        <v>16048.56305</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2697.74323</v>
+        <v>3830.69737</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6695.91024</v>
+        <v>8747.27932</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8008.48329</v>
+        <v>12346.63213</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3830.952020000001</v>
+        <v>5579.84376</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8650.036239999999</v>
+        <v>85555.77009999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4679.16632</v>
+        <v>23216.28927</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>16650.80931</v>
+        <v>23261.81533</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>32395.88571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>58356.67698</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>66042.781</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>146.86006</v>
@@ -2795,223 +2936,251 @@
         <v>16.83337</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>895.98844</v>
+        <v>921.62262</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>63.8025</v>
+        <v>91.16068</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>100.42271</v>
+        <v>218.39267</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>114.25405</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>37.28153</v>
+        <v>233.2238</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>120.69801</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>28.35002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>28.47202</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>24.105</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>251.83925</v>
+        <v>262.73458</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>522.19505</v>
+        <v>657.4678100000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>191.2189</v>
+        <v>205.23384</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>279.47113</v>
+        <v>289.19149</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>291.2193</v>
+        <v>378.07899</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>64.81757</v>
+        <v>144.00585</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>155.36593</v>
+        <v>315.21394</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>524.99761</v>
+        <v>1053.9377</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>79.14667999999999</v>
+        <v>152.93071</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>751.66021</v>
+        <v>760.44777</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6121.93088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8788.40624</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>33721.728</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2007.96403</v>
+        <v>2848.91651</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1538.31607</v>
+        <v>2450.55603</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>8086.152</v>
+        <v>15842.96137</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2401.43873</v>
+        <v>3524.67251</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5508.7025</v>
+        <v>7447.57771</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>7879.86322</v>
+        <v>12111.4656</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3575.16338</v>
+        <v>5046.23715</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8010.78458</v>
+        <v>84387.57835</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4562.73811</v>
+        <v>22830.13476</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>15778.45109</v>
+        <v>22380.66955</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26245.60481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>49539.79872000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32296.948</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1077.6835</v>
+        <v>-3026.92999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1488.25131</v>
+        <v>-310.6301199999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-10761.08834</v>
+        <v>-18864.57015</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-628.0139499999999</v>
+        <v>-87.36816000000015</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-4336.1311</v>
+        <v>9865.605390000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-712.4394700000003</v>
+        <v>19937.75268</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2712.62182</v>
+        <v>6957.26345</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-15977.81876</v>
+        <v>-22862.01584</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-22852.10786</v>
+        <v>-38675.55213</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-15426.38831</v>
+        <v>-21417.69952</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-49407.66165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-58499.04283999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-51008.697</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1213.32675</v>
+        <v>1524.75627</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1334.70892</v>
+        <v>1667.74009</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1505.9697</v>
+        <v>1776.53677</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1789.87511</v>
+        <v>2651.43843</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3237.4816</v>
+        <v>6789.912449999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3917.98002</v>
+        <v>7957.053440000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4245.9067</v>
+        <v>7401.058690000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4064.86092</v>
+        <v>7560.53912</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4795.40916</v>
+        <v>6538.321359999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>9919.68281</v>
+        <v>11638.38556</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10215.84536</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19595.48938</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20220.326</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2291.01025</v>
+        <v>-4551.686259999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2822.96023</v>
+        <v>-1978.37021</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-12267.05804</v>
+        <v>-20641.10692</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2417.88906</v>
+        <v>-2738.80659</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7573.612700000001</v>
+        <v>3075.69294</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-4630.41949</v>
+        <v>11980.69924</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6958.52852</v>
+        <v>-443.79524</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-20042.67968</v>
+        <v>-30422.55496</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-27647.51702</v>
+        <v>-45213.87349000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-25346.07112</v>
+        <v>-33056.08508</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-59623.50701000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-78094.53221999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-71229.023</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1340</v>
+        <v>1409</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1440</v>
+        <v>1527</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1549</v>
+        <v>1648</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1664</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2204</v>
+        <v>2397</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2385</v>
+        <v>2646</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2507</v>
+        <v>2858</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2697</v>
+        <v>3061</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2862</v>
+        <v>3273</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3334</v>
+        <v>3710</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4485</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>